--- a/hw/T4M4C_PinAllocation.xlsx
+++ b/hw/T4M4C_PinAllocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashto\Dev\ECE445L\lab-7-and-10-project-nnat\hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E3BD9E-D415-42DC-A047-432448EC558D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC19364C-AC55-4553-B994-4195217D835E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="3360" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
